--- a/static/files/parameters.xlsx
+++ b/static/files/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali Salem\Desktop\App_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF5B73E-FA24-4F21-BCBD-301936AFCA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8D3F21-D4A1-405E-8289-1145E7B4F99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24" windowWidth="23016" windowHeight="12216" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="24" windowWidth="23016" windowHeight="12216" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assortment" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="151">
   <si>
     <t>Field</t>
   </si>
@@ -157,9 +157,6 @@
     <t>RETAILER</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>‘00000s</t>
   </si>
   <si>
@@ -232,60 +229,12 @@
     <t>15%'</t>
   </si>
   <si>
-    <t>After</t>
-  </si>
-  <si>
-    <t>€</t>
-  </si>
-  <si>
     <t>NATIONAL, RETAILER</t>
   </si>
   <si>
-    <t>DATA SOURCE: Trade Panel/Retailer Data | Ending January 2025</t>
-  </si>
-  <si>
-    <t>2022,2023,2024</t>
-  </si>
-  <si>
-    <t>Ecb</t>
-  </si>
-  <si>
-    <t>Isana Ecb</t>
-  </si>
-  <si>
-    <t>Female Shaving</t>
-  </si>
-  <si>
-    <t>Female Dispo,Female System</t>
-  </si>
-  <si>
-    <t>Female Dispo,Female Blades,Female Razor</t>
-  </si>
-  <si>
-    <t>Female Dispo,Female Blades,Female Banded Pack, Female Handle</t>
-  </si>
-  <si>
-    <t>Female 1-Blade,Female 2-Blade,Female 3-Blade,Female 4-Blade,Female 5-Blade,Female 6-Blade, Female Double Edge</t>
-  </si>
-  <si>
-    <t>Rossmann</t>
-  </si>
-  <si>
-    <t>Rossmann Offline,Rossmann Online</t>
-  </si>
-  <si>
-    <t>Drug Stores,Discounter Gesamt, Hm/Sm</t>
-  </si>
-  <si>
     <t>False</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Edgewell Germany Dataset</t>
-  </si>
-  <si>
     <t>server</t>
   </si>
   <si>
@@ -527,6 +476,15 @@
   </si>
   <si>
     <t>01/04/2022</t>
+  </si>
+  <si>
+    <t>Conv,Drug,Food</t>
+  </si>
+  <si>
+    <t>NATIONAL,RETAILER,CHANNEL</t>
+  </si>
+  <si>
+    <t>Sam's Corp,Walmart,Bj's Corp</t>
   </si>
 </sst>
 </file>
@@ -920,15 +878,15 @@
         <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -939,7 +897,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -950,7 +908,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
@@ -961,7 +919,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
@@ -972,27 +930,27 @@
         <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1017,7 +975,7 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1025,13 +983,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1039,13 +997,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1053,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
@@ -1064,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -1075,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -1086,7 +1044,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -1097,7 +1055,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
@@ -1108,13 +1066,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1122,7 +1080,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -1133,13 +1091,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1147,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
@@ -1158,7 +1116,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -1169,7 +1127,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
@@ -1180,7 +1138,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
@@ -1191,7 +1149,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -1202,7 +1160,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -1213,7 +1171,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -1224,7 +1182,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
@@ -1235,7 +1193,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
@@ -1246,7 +1204,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
@@ -1257,7 +1215,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -1279,13 +1237,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1296,10 +1254,10 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1307,7 +1265,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
@@ -1326,10 +1284,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
@@ -1340,10 +1298,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1355,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C131E685-1F6A-40C1-B63B-FBE27479E849}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1377,15 +1335,15 @@
         <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -1396,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -1407,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
@@ -1418,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
@@ -1429,27 +1387,27 @@
         <v>38</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1474,7 +1432,7 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1482,13 +1440,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1496,13 +1454,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1510,7 +1468,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
@@ -1521,7 +1479,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -1532,7 +1490,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -1543,7 +1501,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -1554,7 +1512,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
@@ -1565,10 +1523,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1576,7 +1534,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -1587,13 +1545,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1601,7 +1559,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
@@ -1612,7 +1570,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -1623,7 +1581,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
@@ -1634,7 +1592,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
@@ -1645,7 +1603,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -1656,7 +1614,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -1667,7 +1625,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -1678,7 +1636,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
@@ -1689,7 +1647,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
@@ -1700,7 +1658,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
@@ -1711,7 +1669,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -1736,10 +1694,10 @@
         <v>45748</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1750,10 +1708,10 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1761,7 +1719,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
@@ -1772,7 +1730,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
@@ -1780,10 +1738,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
@@ -1794,73 +1752,73 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B38" t="b">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B41" t="b">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B42" t="b">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C43" t="s">
         <v>39</v>
@@ -1868,10 +1826,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s">
         <v>39</v>
@@ -1879,10 +1837,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
         <v>35</v>
@@ -1921,10 +1879,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -1932,10 +1890,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -1946,7 +1904,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -1954,10 +1912,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
@@ -1965,10 +1923,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
@@ -1976,10 +1934,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
         <v>39</v>
@@ -1990,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
@@ -2001,7 +1959,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
@@ -2009,10 +1967,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -2020,10 +1978,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -2034,7 +1992,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -2045,7 +2003,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -2067,7 +2025,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -2086,68 +2044,68 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2183,10 +2141,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -2194,10 +2152,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -2205,10 +2163,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -2216,10 +2174,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -2230,7 +2188,7 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -2238,10 +2196,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
@@ -2249,10 +2207,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -2260,10 +2218,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -2279,7 +2237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6560B172-1B59-487F-ACF4-BA38A1166E57}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -2301,15 +2259,15 @@
         <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -2320,7 +2278,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
@@ -2331,7 +2289,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
@@ -2342,7 +2300,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -2353,27 +2311,27 @@
         <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2398,7 +2356,7 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2406,13 +2364,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2420,13 +2378,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2434,7 +2392,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
@@ -2445,7 +2403,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -2456,7 +2414,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -2467,7 +2425,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -2478,7 +2436,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
@@ -2489,13 +2447,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2503,7 +2461,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -2514,13 +2472,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2528,7 +2486,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
@@ -2539,7 +2497,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -2550,7 +2508,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
@@ -2561,7 +2519,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
@@ -2572,7 +2530,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -2583,7 +2541,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -2594,7 +2552,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -2605,7 +2563,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
@@ -2616,7 +2574,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
@@ -2627,7 +2585,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
@@ -2638,7 +2596,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -2660,35 +2618,35 @@
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
@@ -2696,7 +2654,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B35" s="6">
         <v>1000000</v>
@@ -2707,10 +2665,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
@@ -2721,76 +2679,76 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B38" t="b">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B41" t="b">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B42" t="b">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2802,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9FAF09-08A3-4B91-B541-B6D49B1C84A3}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2824,15 +2782,15 @@
         <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -2843,7 +2801,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -2854,7 +2812,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
@@ -2865,7 +2823,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
@@ -2875,28 +2833,28 @@
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>51</v>
+      <c r="B6" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2915,13 +2873,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2929,13 +2887,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2943,13 +2901,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2957,7 +2915,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
@@ -2968,7 +2926,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -2979,7 +2937,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -2990,7 +2948,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -3001,7 +2959,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
@@ -3011,21 +2969,23 @@
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>41</v>
+      <c r="B17" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="C18" t="s">
         <v>35</v>
       </c>
@@ -3035,21 +2995,21 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>78</v>
+      <c r="B20" t="s">
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
@@ -3059,8 +3019,8 @@
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>79</v>
+      <c r="B21" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -3071,7 +3031,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
@@ -3082,7 +3042,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
@@ -3093,7 +3053,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -3104,7 +3064,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -3115,7 +3075,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -3126,7 +3086,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
@@ -3137,7 +3097,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
@@ -3147,8 +3107,8 @@
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
-        <v>69</v>
+      <c r="B29" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
@@ -3159,7 +3119,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -3170,7 +3130,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="4">
-        <v>44774</v>
+        <v>45748</v>
       </c>
       <c r="C31" t="s">
         <v>35</v>
@@ -3181,13 +3141,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="4">
-        <v>45689</v>
+        <v>45748</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3198,10 +3158,10 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3209,7 +3169,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
@@ -3220,7 +3180,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
@@ -3228,10 +3188,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
@@ -3242,18 +3202,18 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
@@ -3261,7 +3221,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B39">
         <v>1000000</v>
@@ -3272,10 +3232,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C40" t="s">
         <v>35</v>
@@ -3283,13 +3243,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B41" t="b">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3301,7 +3261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F065A64-70F8-4E29-A57E-BC789E2BC90C}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -3323,15 +3283,15 @@
         <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -3342,7 +3302,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -3353,7 +3313,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
@@ -3364,7 +3324,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
@@ -3375,27 +3335,27 @@
         <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3420,7 +3380,7 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3428,13 +3388,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3442,13 +3402,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3456,7 +3416,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
@@ -3467,7 +3427,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -3478,7 +3438,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -3489,7 +3449,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -3500,7 +3460,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
@@ -3511,13 +3471,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3525,7 +3485,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -3542,7 +3502,7 @@
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3550,7 +3510,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
@@ -3561,7 +3521,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -3572,7 +3532,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
@@ -3583,7 +3543,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
@@ -3594,7 +3554,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -3605,7 +3565,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -3616,7 +3576,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -3627,7 +3587,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
@@ -3638,7 +3598,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
@@ -3649,7 +3609,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
@@ -3660,7 +3620,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -3668,10 +3628,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C31" t="s">
         <v>35</v>
@@ -3693,18 +3653,18 @@
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B34" s="1" t="b">
         <v>1</v>
@@ -3715,10 +3675,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
@@ -3726,7 +3686,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B36" s="6">
         <v>1000000</v>
@@ -3737,10 +3697,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
@@ -3751,7 +3711,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
@@ -3759,54 +3719,54 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B40" t="b">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B41" t="b">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B42" t="b">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C43" t="s">
         <v>35</v>
@@ -3814,10 +3774,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
         <v>39</v>
@@ -3825,10 +3785,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s">
         <v>35</v>
@@ -3842,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3877,15 +3837,15 @@
         <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -3896,7 +3856,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -3907,7 +3867,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
@@ -3918,7 +3878,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
@@ -3929,27 +3889,27 @@
         <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3974,7 +3934,7 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3982,13 +3942,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3996,13 +3956,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4010,7 +3970,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
@@ -4021,7 +3981,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -4032,7 +3992,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -4043,7 +4003,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -4054,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
@@ -4065,13 +4025,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4079,7 +4039,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -4090,13 +4050,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4104,7 +4064,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
@@ -4115,7 +4075,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -4126,7 +4086,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
@@ -4137,7 +4097,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
@@ -4148,7 +4108,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -4159,7 +4119,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -4170,7 +4130,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -4181,7 +4141,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
@@ -4192,7 +4152,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
@@ -4203,7 +4163,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
@@ -4214,7 +4174,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -4236,18 +4196,18 @@
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B33" s="1" t="b">
         <v>1</v>
@@ -4258,10 +4218,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
@@ -4269,7 +4229,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B35" s="6">
         <v>1000000</v>
@@ -4280,10 +4240,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
@@ -4294,7 +4254,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
